--- a/medicine/Soins infirmiers et profession infirmière/Liste_d'établissements_sanitaires_de_Côte_d'Ivoire/Liste_d'établissements_sanitaires_de_Côte_d'Ivoire.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Liste_d'établissements_sanitaires_de_Côte_d'Ivoire/Liste_d'établissements_sanitaires_de_Côte_d'Ivoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9tablissements_sanitaires_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Liste_d'établissements_sanitaires_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des établissements de santé en Côte d'Ivoire comprend les structures publiques et privées. Cependant, elle ne prend pas en compte les nombreux centres de tradipraticiens et de médecine traditionnelle, ni les établissements informels de vente de médicaments en plein air.
 Nota bene : Les établissements répertoriés ici ne sont pas nécessairement inscrits sur Internet, et tous les établissements de santé ne sont pas inclus sur ce site.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9tablissements_sanitaires_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Liste_d'établissements_sanitaires_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Hôpitaux publics</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cabinet Dentaire Centre Médical Gens de Mer de Marcory[1]
-Centre de Santé ARMST Académie des Mers[1]
-Centre de santé communautaire[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cabinet Dentaire Centre Médical Gens de Mer de Marcory
+Centre de Santé ARMST Académie des Mers
+Centre de santé communautaire
 Centre de Sante de la Police Nationale Abobo Cité Policière
 Centre de santé El Rapha
 Centre de santé urbain à base communautaire d'Abobo
@@ -526,7 +540,7 @@
 Centre Hospitalier Universitaire de Cocody (CHU de Cocody)
 Centre Hospitalier Universitaire de Treichville (CHU de Treichville
 Centre Hospitalier Universitaire de Yopougon (CHU de Yopougon)
-Centre hospitalier régional de San-Pédro[2],[3]
+Centre hospitalier régional de San-Pédro,
 Centre Médical du Policier Andokoi
 Centre médical le CEGOS
 Centre National de Transfusion Sanguine (Abidjan)
@@ -536,7 +550,7 @@
 Clinique MEDICALE VIE Port Bouët 2
 Clinique MEDICO-CHIRURGICALE FRANCE IVOIRE de Biétry
 CSU COM Abobo Banco Sud
-CSU COM Angré[1]
+CSU COM Angré
 CSU COM Anono Marché
 CSU COM Gonzagville de Port-Bouët
 CSU COM Williamsville
